--- a/SampleDatabaseTableTheater.xlsx
+++ b/SampleDatabaseTableTheater.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/battai/Documents/School - MENG Software Engineering/ENSF614/Project/Project-Test-Repo/ENSF614-GroupProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FA0055-410C-2B4B-9AA1-30CB843FC202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE07E15-3001-D448-9FA2-1CDD93F1E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{564F468B-B95F-0E43-BE6A-7C3B331E8E30}"/>
+    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{564F468B-B95F-0E43-BE6A-7C3B331E8E30}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Theater" sheetId="1" r:id="rId1"/>
+    <sheet name="Movies" sheetId="2" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
   <si>
     <t>Day</t>
   </si>
@@ -55,6 +57,42 @@
   </si>
   <si>
     <t>07-12-2021</t>
+  </si>
+  <si>
+    <t>Movie Name</t>
+  </si>
+  <si>
+    <t>John Wick 3</t>
+  </si>
+  <si>
+    <t>Home Alone</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>Kayode</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -414,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E1375-8E51-5C40-A3E2-0DF1F85EF8F0}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2076,4 +2114,109 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E58991-7198-CB43-9100-8CFFA5A60ECE}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4342976B-40FB-7A4F-AA6F-BF9C821EA413}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>